--- a/TaskManager/controllers/Inspection/MC.xlsx
+++ b/TaskManager/controllers/Inspection/MC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASE CRANE CHECK LIST" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="219">
   <si>
     <t xml:space="preserve">Bauer Egypt S.A.E
 Specialized Foundation Contractors</t>
@@ -485,70 +485,211 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">(FUEL, OIL, AIR) FILTER </t>
+    <t xml:space="preserve">GEAR SHEILD PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL PRESSURE + m amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNNING MOTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEERING FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCTION BOX WITH REAMER PLATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM HEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSE GUIDE ROLLERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM WINCH AND ROPE SHEAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTTER ROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM SECTIONS AND PINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM ROPE + A FRAME ROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPERATURE SENSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICK UP SPEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIESEL TANK FUEL LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FUEL, OIL, AIR) FILTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER AND AIR COOLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURBO CHARGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIBRATION AND SOUND LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIVE BELTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMOKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLING FANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL COOLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC CONNECTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC OIL SAMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSE ASSEMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYLINDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC FILTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC OIL COOLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC PUMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOMATIC MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJUSTMENT MUD HOSE DRUM CYLINDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUD HOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSES LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTARY LEAD THROUGH MUD HOSE DRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC HOSES TENSION WIRE JOINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGNITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLASSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICAL PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE MACHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWING MECHANISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTER WEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN WINCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP DITRIBUTER GEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFUELLING PUMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRAWLER TRACK ASSEMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELF GREASING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN UPPER STRUCTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIPEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUBRICATION</t>
   </si>
   <si>
     <t xml:space="preserve">AC</t>
   </si>
   <si>
-    <t xml:space="preserve">PICK UP SPEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIESEL TANK FUEL LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(FUEL,OIL,AIR) FILTER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIBRATION AND SOUND LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRIVE BELTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLING FANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULIC OIL SAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSE ASSEMPLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYLINDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULIC FILTERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULIC OIL COOLER</t>
+    <t xml:space="preserve">BOOM ROPE + A FRAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FUEL,OIL,AIR) FILTER</t>
   </si>
   <si>
     <t xml:space="preserve">HTS SYSTEM</t>
   </si>
   <si>
+    <t xml:space="preserve">HYD HOSES LIMIT SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUD HOSE LIMIT SWITCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">HYDRAULIC - MUD WINCHES</t>
   </si>
   <si>
+    <t xml:space="preserve">WINCHES WIRE ROPES</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOSES WHEELS</t>
   </si>
   <si>
-    <t xml:space="preserve"> TENSION WIRE safty ROPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGNITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIPEER</t>
+    <t xml:space="preserve">TENSION WIRE safty ROPES</t>
   </si>
   <si>
     <t xml:space="preserve">DEPTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRICATION</t>
   </si>
 </sst>
 </file>
@@ -558,7 +699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -648,12 +789,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1089,7 +1224,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1663,10 +1798,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1754,9 +1885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>765000</xdr:colOff>
+      <xdr:colOff>764640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>766080</xdr:rowOff>
+      <xdr:rowOff>765720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1770,7 +1901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53640" y="53640"/>
-          <a:ext cx="711360" cy="712440"/>
+          <a:ext cx="711000" cy="712080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,9 +1927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>794520</xdr:colOff>
+      <xdr:colOff>794160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>767880</xdr:rowOff>
+      <xdr:rowOff>767520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1812,7 +1943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="83160" y="55440"/>
-          <a:ext cx="711360" cy="712440"/>
+          <a:ext cx="711000" cy="712080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
+      <xdr:colOff>779400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>757440</xdr:rowOff>
+      <xdr:rowOff>757080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="68400" y="45000"/>
-          <a:ext cx="711360" cy="712440"/>
+          <a:ext cx="711000" cy="712080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,7 +2011,7 @@
       <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.11"/>
@@ -3116,7 +3247,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="48.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="19.22"/>
@@ -5169,7 +5300,7 @@
       <selection pane="topLeft" activeCell="C123" activeCellId="0" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.44"/>
@@ -6743,17 +6874,17 @@
   </sheetPr>
   <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,7 +6914,7 @@
       <c r="C2" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E2" s="1"/>
@@ -6798,7 +6929,7 @@
       <c r="C3" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="1"/>
@@ -6813,7 +6944,7 @@
       <c r="C4" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E4" s="1"/>
@@ -6823,12 +6954,12 @@
         <v>72</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C5" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E5" s="1"/>
@@ -6838,12 +6969,12 @@
         <v>72</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C6" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="1"/>
@@ -6858,7 +6989,7 @@
       <c r="C7" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="1"/>
@@ -6873,7 +7004,7 @@
       <c r="C8" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="1"/>
@@ -6888,7 +7019,7 @@
       <c r="C9" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E9" s="1"/>
@@ -6898,12 +7029,12 @@
         <v>72</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C10" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="1"/>
@@ -6913,12 +7044,12 @@
         <v>72</v>
       </c>
       <c r="B11" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C11" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E11" s="1"/>
@@ -6933,7 +7064,7 @@
       <c r="C12" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="1"/>
@@ -6943,12 +7074,12 @@
         <v>72</v>
       </c>
       <c r="B13" s="143" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C13" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="1"/>
@@ -6958,12 +7089,12 @@
         <v>72</v>
       </c>
       <c r="B14" s="143" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C14" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="1"/>
@@ -6973,12 +7104,12 @@
         <v>72</v>
       </c>
       <c r="B15" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C15" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E15" s="1"/>
@@ -6991,9 +7122,9 @@
         <v>92</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E16" s="1"/>
@@ -7006,9 +7137,9 @@
         <v>94</v>
       </c>
       <c r="C17" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E17" s="1"/>
@@ -7018,12 +7149,12 @@
         <v>72</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C18" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E18" s="1"/>
@@ -7033,12 +7164,12 @@
         <v>72</v>
       </c>
       <c r="B19" s="143" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="1"/>
@@ -7048,389 +7179,389 @@
         <v>72</v>
       </c>
       <c r="B20" s="143" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B21" s="143" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B22" s="143" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B23" s="143" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B24" s="143" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="144" t="s">
+      <c r="D24" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B25" s="143" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B26" s="143" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B27" s="143" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B28" s="143" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B29" s="143" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B30" s="143" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B31" s="143" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="144" t="s">
+      <c r="D31" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B32" s="143" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="144" t="s">
+      <c r="D32" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B33" s="143" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="144" t="s">
+      <c r="D33" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B34" s="143" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="144" t="s">
+      <c r="D34" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B35" s="143" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B36" s="143" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="144" t="s">
+      <c r="D36" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B37" s="143" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="144" t="s">
+      <c r="D37" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B38" s="143" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="144" t="s">
+      <c r="D38" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B39" s="143" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="144" t="s">
+      <c r="D39" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B40" s="143" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="144" t="s">
+      <c r="D40" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="144" t="s">
+      <c r="D41" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B42" s="143" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="144" t="s">
+      <c r="D42" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B43" s="143" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="144" t="s">
+      <c r="D43" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B44" s="143" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="144" t="s">
+      <c r="D44" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B45" s="143" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="144" t="s">
+      <c r="D45" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B46" s="143" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="144" t="s">
+      <c r="D46" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B47" s="143" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="144" t="s">
+      <c r="D47" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B48" s="143" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="144" t="s">
+      <c r="D48" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B49" s="143" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="144" t="s">
+      <c r="D49" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E49" s="1"/>
@@ -7440,10 +7571,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E50" s="1"/>
@@ -7455,8 +7586,8 @@
       <c r="B51" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144" t="s">
+      <c r="C51" s="143"/>
+      <c r="D51" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E51" s="1"/>
@@ -7468,8 +7599,8 @@
       <c r="B52" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144" t="s">
+      <c r="C52" s="143"/>
+      <c r="D52" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E52" s="1"/>
@@ -7479,10 +7610,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E53" s="1"/>
@@ -7492,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E54" s="1"/>
@@ -7505,10 +7636,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E55" s="1"/>
@@ -7518,10 +7649,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E56" s="1"/>
@@ -7531,10 +7662,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="143" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E57" s="1"/>
@@ -7544,10 +7675,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E58" s="1"/>
@@ -7557,10 +7688,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E59" s="1"/>
@@ -7572,8 +7703,8 @@
       <c r="B60" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144" t="s">
+      <c r="C60" s="143"/>
+      <c r="D60" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E60" s="1"/>
@@ -7583,10 +7714,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E61" s="1"/>
@@ -7596,10 +7727,10 @@
         <v>88</v>
       </c>
       <c r="B62" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E62" s="1"/>
@@ -7609,10 +7740,10 @@
         <v>88</v>
       </c>
       <c r="B63" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E63" s="1"/>
@@ -7622,10 +7753,10 @@
         <v>88</v>
       </c>
       <c r="B64" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E64" s="1"/>
@@ -7637,8 +7768,8 @@
       <c r="B65" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144" t="s">
+      <c r="C65" s="143"/>
+      <c r="D65" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E65" s="1"/>
@@ -7648,10 +7779,10 @@
         <v>88</v>
       </c>
       <c r="B66" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E66" s="1"/>
@@ -7661,10 +7792,10 @@
         <v>88</v>
       </c>
       <c r="B67" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E67" s="1"/>
@@ -7674,10 +7805,10 @@
         <v>88</v>
       </c>
       <c r="B68" s="143" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E68" s="1"/>
@@ -7687,10 +7818,10 @@
         <v>88</v>
       </c>
       <c r="B69" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E69" s="1"/>
@@ -7700,10 +7831,10 @@
         <v>88</v>
       </c>
       <c r="B70" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="143"/>
+      <c r="D70" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E70" s="1"/>
@@ -7718,7 +7849,7 @@
       <c r="C71" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="144" t="s">
+      <c r="D71" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E71" s="1"/>
@@ -7733,7 +7864,7 @@
       <c r="C72" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="144" t="s">
+      <c r="D72" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E72" s="1"/>
@@ -7748,7 +7879,7 @@
       <c r="C73" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="144" t="s">
+      <c r="D73" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E73" s="1"/>
@@ -7763,7 +7894,7 @@
       <c r="C74" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="144" t="s">
+      <c r="D74" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E74" s="1"/>
@@ -7778,7 +7909,7 @@
       <c r="C75" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="144" t="s">
+      <c r="D75" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E75" s="1"/>
@@ -7793,7 +7924,7 @@
       <c r="C76" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="144" t="s">
+      <c r="D76" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E76" s="1"/>
@@ -7808,7 +7939,7 @@
       <c r="C77" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="144" t="s">
+      <c r="D77" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E77" s="1"/>
@@ -7823,7 +7954,7 @@
       <c r="C78" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="144" t="s">
+      <c r="D78" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E78" s="1"/>
@@ -7833,12 +7964,12 @@
         <v>30</v>
       </c>
       <c r="B79" s="143" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C79" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="144" t="s">
+      <c r="D79" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E79" s="1"/>
@@ -7848,181 +7979,181 @@
         <v>30</v>
       </c>
       <c r="B80" s="143" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C80" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="144" t="s">
+      <c r="D80" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B81" s="143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="144"/>
-      <c r="D81" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B82" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B83" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B84" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B85" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="143"/>
+      <c r="D85" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B86" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B87" s="143" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B88" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="144"/>
-      <c r="D88" s="144" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B89" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B90" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="144"/>
-      <c r="D90" s="144" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B91" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="143"/>
+      <c r="D91" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B92" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="144"/>
-      <c r="D92" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B93" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="144"/>
-      <c r="D93" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="143"/>
+      <c r="D93" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E93" s="1"/>
@@ -8034,8 +8165,8 @@
       <c r="B94" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="144"/>
-      <c r="D94" s="144" t="s">
+      <c r="C94" s="143"/>
+      <c r="D94" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E94" s="1"/>
@@ -8047,8 +8178,8 @@
       <c r="B95" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="144"/>
-      <c r="D95" s="144" t="s">
+      <c r="C95" s="143"/>
+      <c r="D95" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E95" s="1"/>
@@ -8058,10 +8189,10 @@
         <v>57</v>
       </c>
       <c r="B96" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="144"/>
-      <c r="D96" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="143"/>
+      <c r="D96" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E96" s="1"/>
@@ -8073,8 +8204,8 @@
       <c r="B97" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="144"/>
-      <c r="D97" s="144" t="s">
+      <c r="C97" s="143"/>
+      <c r="D97" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E97" s="1"/>
@@ -8086,8 +8217,8 @@
       <c r="B98" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="144"/>
-      <c r="D98" s="144" t="s">
+      <c r="C98" s="143"/>
+      <c r="D98" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E98" s="1"/>
@@ -8097,10 +8228,10 @@
         <v>57</v>
       </c>
       <c r="B99" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="144"/>
-      <c r="D99" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E99" s="1"/>
@@ -8110,10 +8241,10 @@
         <v>57</v>
       </c>
       <c r="B100" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="144"/>
-      <c r="D100" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="143"/>
+      <c r="D100" s="143" t="s">
         <v>149</v>
       </c>
       <c r="E100" s="1"/>
@@ -10950,17 +11081,17 @@
   </sheetPr>
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10990,7 +11121,7 @@
       <c r="C2" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11004,7 +11135,7 @@
       <c r="C3" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11018,7 +11149,7 @@
       <c r="C4" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11027,12 +11158,12 @@
         <v>128</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C5" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11046,7 +11177,7 @@
       <c r="C6" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11060,7 +11191,7 @@
       <c r="C7" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11074,7 +11205,7 @@
       <c r="C8" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11083,12 +11214,12 @@
         <v>128</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C9" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11102,7 +11233,7 @@
       <c r="C10" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11111,12 +11242,12 @@
         <v>128</v>
       </c>
       <c r="B11" s="143" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C11" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11125,12 +11256,12 @@
         <v>128</v>
       </c>
       <c r="B12" s="143" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C12" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11139,12 +11270,12 @@
         <v>128</v>
       </c>
       <c r="B13" s="143" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C13" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11158,7 +11289,7 @@
       <c r="C14" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11172,7 +11303,7 @@
       <c r="C15" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11181,12 +11312,12 @@
         <v>128</v>
       </c>
       <c r="B16" s="143" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C16" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11195,444 +11326,444 @@
         <v>128</v>
       </c>
       <c r="B17" s="143" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C17" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B18" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144" t="s">
+      <c r="C18" s="143"/>
+      <c r="D18" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B19" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144" t="s">
+      <c r="C19" s="143"/>
+      <c r="D19" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B20" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144" t="s">
+      <c r="C20" s="143"/>
+      <c r="D20" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B21" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144" t="s">
+      <c r="C21" s="143"/>
+      <c r="D21" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B22" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B23" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B24" s="143" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B25" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B26" s="143" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="143" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B27" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B28" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B29" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144" t="s">
+      <c r="C29" s="143"/>
+      <c r="D29" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B30" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B31" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B32" s="143" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B33" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B34" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144" t="s">
+      <c r="C34" s="143"/>
+      <c r="D34" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B35" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B36" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144" t="s">
+      <c r="C36" s="143"/>
+      <c r="D36" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B37" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144" t="s">
+      <c r="C37" s="143"/>
+      <c r="D37" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B38" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144" t="s">
+      <c r="C38" s="143"/>
+      <c r="D38" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B39" s="143" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B40" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B42" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B43" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B44" s="143" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B45" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="143" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B46" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B47" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B48" s="143" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B49" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B50" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B51" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B52" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="143" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B53" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11643,8 +11774,8 @@
       <c r="B54" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144" t="s">
+      <c r="C54" s="143"/>
+      <c r="D54" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11655,8 +11786,8 @@
       <c r="B55" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144" t="s">
+      <c r="C55" s="143"/>
+      <c r="D55" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11667,8 +11798,8 @@
       <c r="B56" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144" t="s">
+      <c r="C56" s="143"/>
+      <c r="D56" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11677,10 +11808,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11689,10 +11820,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11701,10 +11832,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="143" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11713,10 +11844,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="143" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11725,10 +11856,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11737,10 +11868,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11749,10 +11880,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11763,8 +11894,8 @@
       <c r="B64" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144" t="s">
+      <c r="C64" s="143"/>
+      <c r="D64" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11775,176 +11906,176 @@
       <c r="B65" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144" t="s">
+      <c r="C65" s="143"/>
+      <c r="D65" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B66" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B67" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B68" s="143" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B69" s="143" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B70" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144" t="s">
+      <c r="C70" s="143"/>
+      <c r="D70" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B71" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144" t="s">
+      <c r="C71" s="143"/>
+      <c r="D71" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B72" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="143"/>
+      <c r="D72" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B73" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="144"/>
-      <c r="D73" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="143"/>
+      <c r="D73" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B74" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="143"/>
+      <c r="D74" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B75" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="144"/>
-      <c r="D75" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="143"/>
+      <c r="D75" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B76" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="144"/>
-      <c r="D76" s="144" t="s">
+      <c r="C76" s="143"/>
+      <c r="D76" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B77" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="143"/>
+      <c r="D77" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B78" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="143"/>
+      <c r="D78" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="143" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B79" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="144"/>
-      <c r="D79" s="144" t="s">
+      <c r="C79" s="143"/>
+      <c r="D79" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11958,7 +12089,7 @@
       <c r="C80" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="144" t="s">
+      <c r="D80" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11972,7 +12103,7 @@
       <c r="C81" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="144" t="s">
+      <c r="D81" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11986,7 +12117,7 @@
       <c r="C82" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="144" t="s">
+      <c r="D82" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12000,7 +12131,7 @@
       <c r="C83" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="144" t="s">
+      <c r="D83" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12014,7 +12145,7 @@
       <c r="C84" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="144" t="s">
+      <c r="D84" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12028,7 +12159,7 @@
       <c r="C85" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="144" t="s">
+      <c r="D85" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12042,7 +12173,7 @@
       <c r="C86" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="144" t="s">
+      <c r="D86" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12056,7 +12187,7 @@
       <c r="C87" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="144" t="s">
+      <c r="D87" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12065,72 +12196,72 @@
         <v>30</v>
       </c>
       <c r="B88" s="143" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C88" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="144" t="s">
+      <c r="D88" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B89" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144" t="s">
+      <c r="C89" s="143"/>
+      <c r="D89" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B90" s="143" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="144"/>
-      <c r="D90" s="144" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B91" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="143"/>
+      <c r="D91" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B92" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="144"/>
-      <c r="D92" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="143" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B93" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="144"/>
-      <c r="D93" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="143"/>
+      <c r="D93" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12141,8 +12272,8 @@
       <c r="B94" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="144"/>
-      <c r="D94" s="144" t="s">
+      <c r="C94" s="143"/>
+      <c r="D94" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12153,8 +12284,8 @@
       <c r="B95" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="144"/>
-      <c r="D95" s="144" t="s">
+      <c r="C95" s="143"/>
+      <c r="D95" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12163,10 +12294,10 @@
         <v>57</v>
       </c>
       <c r="B96" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="144"/>
-      <c r="D96" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="143"/>
+      <c r="D96" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12177,8 +12308,8 @@
       <c r="B97" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="144"/>
-      <c r="D97" s="144" t="s">
+      <c r="C97" s="143"/>
+      <c r="D97" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12187,10 +12318,10 @@
         <v>57</v>
       </c>
       <c r="B98" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="144"/>
-      <c r="D98" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="143"/>
+      <c r="D98" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12199,10 +12330,10 @@
         <v>57</v>
       </c>
       <c r="B99" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="144"/>
-      <c r="D99" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12211,10 +12342,10 @@
         <v>57</v>
       </c>
       <c r="B100" s="143" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="144"/>
-      <c r="D100" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="143"/>
+      <c r="D100" s="143" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12223,1410 +12354,1410 @@
         <v>57</v>
       </c>
       <c r="B101" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="144"/>
-      <c r="D101" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="143"/>
+      <c r="D101" s="143" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="144"/>
-      <c r="B102" s="144"/>
-      <c r="C102" s="144"/>
-      <c r="D102" s="144"/>
+      <c r="A102" s="143"/>
+      <c r="B102" s="143"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="143"/>
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="144"/>
-      <c r="B103" s="144"/>
-      <c r="C103" s="144"/>
-      <c r="D103" s="144"/>
+      <c r="A103" s="143"/>
+      <c r="B103" s="143"/>
+      <c r="C103" s="143"/>
+      <c r="D103" s="143"/>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="144"/>
-      <c r="B104" s="144"/>
-      <c r="C104" s="144"/>
-      <c r="D104" s="144"/>
+      <c r="A104" s="143"/>
+      <c r="B104" s="143"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="143"/>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="144"/>
-      <c r="B105" s="144"/>
-      <c r="C105" s="144"/>
-      <c r="D105" s="144"/>
+      <c r="A105" s="143"/>
+      <c r="B105" s="143"/>
+      <c r="C105" s="143"/>
+      <c r="D105" s="143"/>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="144"/>
-      <c r="B106" s="144"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="144"/>
+      <c r="A106" s="143"/>
+      <c r="B106" s="143"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="143"/>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="144"/>
-      <c r="B107" s="144"/>
-      <c r="C107" s="144"/>
-      <c r="D107" s="144"/>
+      <c r="A107" s="143"/>
+      <c r="B107" s="143"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="143"/>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="144"/>
-      <c r="B108" s="144"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="144"/>
+      <c r="A108" s="143"/>
+      <c r="B108" s="143"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="143"/>
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="144"/>
-      <c r="B109" s="144"/>
-      <c r="C109" s="144"/>
-      <c r="D109" s="144"/>
+      <c r="A109" s="143"/>
+      <c r="B109" s="143"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="143"/>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="144"/>
-      <c r="B110" s="144"/>
-      <c r="C110" s="144"/>
-      <c r="D110" s="144"/>
+      <c r="A110" s="143"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="143"/>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="144"/>
-      <c r="B111" s="144"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="144"/>
+      <c r="A111" s="143"/>
+      <c r="B111" s="143"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="143"/>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="144"/>
-      <c r="B112" s="144"/>
-      <c r="C112" s="144"/>
-      <c r="D112" s="144"/>
+      <c r="A112" s="143"/>
+      <c r="B112" s="143"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="143"/>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="144"/>
-      <c r="B113" s="144"/>
-      <c r="C113" s="144"/>
-      <c r="D113" s="144"/>
+      <c r="A113" s="143"/>
+      <c r="B113" s="143"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="143"/>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="144"/>
-      <c r="B114" s="144"/>
-      <c r="C114" s="144"/>
-      <c r="D114" s="144"/>
+      <c r="A114" s="143"/>
+      <c r="B114" s="143"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="143"/>
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="144"/>
-      <c r="B115" s="144"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="144"/>
+      <c r="A115" s="143"/>
+      <c r="B115" s="143"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="143"/>
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="144"/>
-      <c r="B116" s="144"/>
-      <c r="C116" s="144"/>
-      <c r="D116" s="144"/>
+      <c r="A116" s="143"/>
+      <c r="B116" s="143"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="143"/>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="144"/>
-      <c r="B117" s="144"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="144"/>
+      <c r="A117" s="143"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="143"/>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="144"/>
-      <c r="B118" s="144"/>
-      <c r="C118" s="144"/>
-      <c r="D118" s="144"/>
+      <c r="A118" s="143"/>
+      <c r="B118" s="143"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="143"/>
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="144"/>
-      <c r="B119" s="144"/>
-      <c r="C119" s="144"/>
-      <c r="D119" s="144"/>
+      <c r="A119" s="143"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="144"/>
-      <c r="B120" s="144"/>
-      <c r="C120" s="144"/>
-      <c r="D120" s="144"/>
+      <c r="A120" s="143"/>
+      <c r="B120" s="143"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="143"/>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="144"/>
-      <c r="B121" s="144"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="144"/>
+      <c r="A121" s="143"/>
+      <c r="B121" s="143"/>
+      <c r="C121" s="143"/>
+      <c r="D121" s="143"/>
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="144"/>
-      <c r="B122" s="144"/>
-      <c r="C122" s="144"/>
-      <c r="D122" s="144"/>
+      <c r="A122" s="143"/>
+      <c r="B122" s="143"/>
+      <c r="C122" s="143"/>
+      <c r="D122" s="143"/>
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="144"/>
-      <c r="B123" s="144"/>
-      <c r="C123" s="144"/>
-      <c r="D123" s="144"/>
+      <c r="A123" s="143"/>
+      <c r="B123" s="143"/>
+      <c r="C123" s="143"/>
+      <c r="D123" s="143"/>
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="144"/>
-      <c r="B124" s="144"/>
-      <c r="C124" s="144"/>
-      <c r="D124" s="144"/>
+      <c r="A124" s="143"/>
+      <c r="B124" s="143"/>
+      <c r="C124" s="143"/>
+      <c r="D124" s="143"/>
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="144"/>
-      <c r="B125" s="144"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="144"/>
+      <c r="A125" s="143"/>
+      <c r="B125" s="143"/>
+      <c r="C125" s="143"/>
+      <c r="D125" s="143"/>
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="144"/>
-      <c r="B126" s="144"/>
-      <c r="C126" s="144"/>
-      <c r="D126" s="144"/>
+      <c r="A126" s="143"/>
+      <c r="B126" s="143"/>
+      <c r="C126" s="143"/>
+      <c r="D126" s="143"/>
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="144"/>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
+      <c r="A127" s="143"/>
+      <c r="B127" s="143"/>
+      <c r="C127" s="143"/>
+      <c r="D127" s="143"/>
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="144"/>
-      <c r="B128" s="144"/>
-      <c r="C128" s="144"/>
-      <c r="D128" s="144"/>
+      <c r="A128" s="143"/>
+      <c r="B128" s="143"/>
+      <c r="C128" s="143"/>
+      <c r="D128" s="143"/>
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="144"/>
-      <c r="B129" s="144"/>
-      <c r="C129" s="144"/>
-      <c r="D129" s="144"/>
+      <c r="A129" s="143"/>
+      <c r="B129" s="143"/>
+      <c r="C129" s="143"/>
+      <c r="D129" s="143"/>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="144"/>
-      <c r="B130" s="144"/>
-      <c r="C130" s="144"/>
-      <c r="D130" s="144"/>
+      <c r="A130" s="143"/>
+      <c r="B130" s="143"/>
+      <c r="C130" s="143"/>
+      <c r="D130" s="143"/>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="144"/>
-      <c r="B131" s="144"/>
-      <c r="C131" s="144"/>
-      <c r="D131" s="144"/>
+      <c r="A131" s="143"/>
+      <c r="B131" s="143"/>
+      <c r="C131" s="143"/>
+      <c r="D131" s="143"/>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="144"/>
-      <c r="B132" s="144"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="144"/>
+      <c r="A132" s="143"/>
+      <c r="B132" s="143"/>
+      <c r="C132" s="143"/>
+      <c r="D132" s="143"/>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="144"/>
-      <c r="B133" s="144"/>
-      <c r="C133" s="144"/>
-      <c r="D133" s="144"/>
+      <c r="A133" s="143"/>
+      <c r="B133" s="143"/>
+      <c r="C133" s="143"/>
+      <c r="D133" s="143"/>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="144"/>
-      <c r="B134" s="144"/>
-      <c r="C134" s="144"/>
-      <c r="D134" s="144"/>
+      <c r="A134" s="143"/>
+      <c r="B134" s="143"/>
+      <c r="C134" s="143"/>
+      <c r="D134" s="143"/>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="144"/>
-      <c r="B135" s="144"/>
-      <c r="C135" s="144"/>
-      <c r="D135" s="144"/>
+      <c r="A135" s="143"/>
+      <c r="B135" s="143"/>
+      <c r="C135" s="143"/>
+      <c r="D135" s="143"/>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="144"/>
-      <c r="B136" s="144"/>
-      <c r="C136" s="144"/>
-      <c r="D136" s="144"/>
+      <c r="A136" s="143"/>
+      <c r="B136" s="143"/>
+      <c r="C136" s="143"/>
+      <c r="D136" s="143"/>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="144"/>
-      <c r="B137" s="144"/>
-      <c r="C137" s="144"/>
-      <c r="D137" s="144"/>
+      <c r="A137" s="143"/>
+      <c r="B137" s="143"/>
+      <c r="C137" s="143"/>
+      <c r="D137" s="143"/>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="144"/>
-      <c r="B138" s="144"/>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
+      <c r="A138" s="143"/>
+      <c r="B138" s="143"/>
+      <c r="C138" s="143"/>
+      <c r="D138" s="143"/>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="144"/>
-      <c r="B139" s="144"/>
-      <c r="C139" s="144"/>
-      <c r="D139" s="144"/>
+      <c r="A139" s="143"/>
+      <c r="B139" s="143"/>
+      <c r="C139" s="143"/>
+      <c r="D139" s="143"/>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="144"/>
-      <c r="B140" s="144"/>
-      <c r="C140" s="144"/>
-      <c r="D140" s="144"/>
+      <c r="A140" s="143"/>
+      <c r="B140" s="143"/>
+      <c r="C140" s="143"/>
+      <c r="D140" s="143"/>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="144"/>
-      <c r="B141" s="144"/>
-      <c r="C141" s="144"/>
-      <c r="D141" s="144"/>
+      <c r="A141" s="143"/>
+      <c r="B141" s="143"/>
+      <c r="C141" s="143"/>
+      <c r="D141" s="143"/>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="144"/>
-      <c r="B142" s="144"/>
-      <c r="C142" s="144"/>
-      <c r="D142" s="144"/>
+      <c r="A142" s="143"/>
+      <c r="B142" s="143"/>
+      <c r="C142" s="143"/>
+      <c r="D142" s="143"/>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="144"/>
-      <c r="B143" s="144"/>
-      <c r="C143" s="144"/>
-      <c r="D143" s="144"/>
+      <c r="A143" s="143"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="143"/>
+      <c r="D143" s="143"/>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="144"/>
-      <c r="B144" s="144"/>
-      <c r="C144" s="144"/>
-      <c r="D144" s="144"/>
+      <c r="A144" s="143"/>
+      <c r="B144" s="143"/>
+      <c r="C144" s="143"/>
+      <c r="D144" s="143"/>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="144"/>
-      <c r="B145" s="144"/>
-      <c r="C145" s="144"/>
-      <c r="D145" s="144"/>
+      <c r="A145" s="143"/>
+      <c r="B145" s="143"/>
+      <c r="C145" s="143"/>
+      <c r="D145" s="143"/>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="144"/>
-      <c r="B146" s="144"/>
-      <c r="C146" s="144"/>
-      <c r="D146" s="144"/>
+      <c r="A146" s="143"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="144"/>
-      <c r="B147" s="144"/>
-      <c r="C147" s="144"/>
-      <c r="D147" s="144"/>
+      <c r="A147" s="143"/>
+      <c r="B147" s="143"/>
+      <c r="C147" s="143"/>
+      <c r="D147" s="143"/>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="144"/>
-      <c r="B148" s="144"/>
-      <c r="C148" s="144"/>
-      <c r="D148" s="144"/>
+      <c r="A148" s="143"/>
+      <c r="B148" s="143"/>
+      <c r="C148" s="143"/>
+      <c r="D148" s="143"/>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="144"/>
-      <c r="B149" s="144"/>
-      <c r="C149" s="144"/>
-      <c r="D149" s="144"/>
+      <c r="A149" s="143"/>
+      <c r="B149" s="143"/>
+      <c r="C149" s="143"/>
+      <c r="D149" s="143"/>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="144"/>
-      <c r="B150" s="144"/>
-      <c r="C150" s="144"/>
-      <c r="D150" s="144"/>
+      <c r="A150" s="143"/>
+      <c r="B150" s="143"/>
+      <c r="C150" s="143"/>
+      <c r="D150" s="143"/>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="144"/>
-      <c r="B151" s="144"/>
-      <c r="C151" s="144"/>
-      <c r="D151" s="144"/>
+      <c r="A151" s="143"/>
+      <c r="B151" s="143"/>
+      <c r="C151" s="143"/>
+      <c r="D151" s="143"/>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="144"/>
-      <c r="B152" s="144"/>
-      <c r="C152" s="144"/>
-      <c r="D152" s="144"/>
+      <c r="A152" s="143"/>
+      <c r="B152" s="143"/>
+      <c r="C152" s="143"/>
+      <c r="D152" s="143"/>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="144"/>
-      <c r="B153" s="144"/>
-      <c r="C153" s="144"/>
-      <c r="D153" s="144"/>
+      <c r="A153" s="143"/>
+      <c r="B153" s="143"/>
+      <c r="C153" s="143"/>
+      <c r="D153" s="143"/>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="144"/>
-      <c r="B154" s="144"/>
-      <c r="C154" s="144"/>
-      <c r="D154" s="144"/>
+      <c r="A154" s="143"/>
+      <c r="B154" s="143"/>
+      <c r="C154" s="143"/>
+      <c r="D154" s="143"/>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="144"/>
-      <c r="B155" s="144"/>
-      <c r="C155" s="144"/>
-      <c r="D155" s="144"/>
+      <c r="A155" s="143"/>
+      <c r="B155" s="143"/>
+      <c r="C155" s="143"/>
+      <c r="D155" s="143"/>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="144"/>
-      <c r="B156" s="144"/>
-      <c r="C156" s="144"/>
-      <c r="D156" s="144"/>
+      <c r="A156" s="143"/>
+      <c r="B156" s="143"/>
+      <c r="C156" s="143"/>
+      <c r="D156" s="143"/>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="144"/>
-      <c r="B157" s="144"/>
-      <c r="C157" s="144"/>
-      <c r="D157" s="144"/>
+      <c r="A157" s="143"/>
+      <c r="B157" s="143"/>
+      <c r="C157" s="143"/>
+      <c r="D157" s="143"/>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="144"/>
-      <c r="B158" s="144"/>
-      <c r="C158" s="144"/>
-      <c r="D158" s="144"/>
+      <c r="A158" s="143"/>
+      <c r="B158" s="143"/>
+      <c r="C158" s="143"/>
+      <c r="D158" s="143"/>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="144"/>
-      <c r="B159" s="144"/>
-      <c r="C159" s="144"/>
-      <c r="D159" s="144"/>
+      <c r="A159" s="143"/>
+      <c r="B159" s="143"/>
+      <c r="C159" s="143"/>
+      <c r="D159" s="143"/>
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="144"/>
-      <c r="B160" s="144"/>
-      <c r="C160" s="144"/>
-      <c r="D160" s="144"/>
+      <c r="A160" s="143"/>
+      <c r="B160" s="143"/>
+      <c r="C160" s="143"/>
+      <c r="D160" s="143"/>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="144"/>
-      <c r="B161" s="144"/>
-      <c r="C161" s="144"/>
-      <c r="D161" s="144"/>
+      <c r="A161" s="143"/>
+      <c r="B161" s="143"/>
+      <c r="C161" s="143"/>
+      <c r="D161" s="143"/>
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="144"/>
-      <c r="B162" s="144"/>
-      <c r="C162" s="144"/>
-      <c r="D162" s="144"/>
+      <c r="A162" s="143"/>
+      <c r="B162" s="143"/>
+      <c r="C162" s="143"/>
+      <c r="D162" s="143"/>
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="144"/>
-      <c r="B163" s="144"/>
-      <c r="C163" s="144"/>
-      <c r="D163" s="144"/>
+      <c r="A163" s="143"/>
+      <c r="B163" s="143"/>
+      <c r="C163" s="143"/>
+      <c r="D163" s="143"/>
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="144"/>
-      <c r="B164" s="144"/>
-      <c r="C164" s="144"/>
-      <c r="D164" s="144"/>
+      <c r="A164" s="143"/>
+      <c r="B164" s="143"/>
+      <c r="C164" s="143"/>
+      <c r="D164" s="143"/>
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="144"/>
-      <c r="B165" s="144"/>
-      <c r="C165" s="144"/>
-      <c r="D165" s="144"/>
+      <c r="A165" s="143"/>
+      <c r="B165" s="143"/>
+      <c r="C165" s="143"/>
+      <c r="D165" s="143"/>
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="144"/>
-      <c r="B166" s="144"/>
-      <c r="C166" s="144"/>
-      <c r="D166" s="144"/>
+      <c r="A166" s="143"/>
+      <c r="B166" s="143"/>
+      <c r="C166" s="143"/>
+      <c r="D166" s="143"/>
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="144"/>
-      <c r="B167" s="144"/>
-      <c r="C167" s="144"/>
-      <c r="D167" s="144"/>
+      <c r="A167" s="143"/>
+      <c r="B167" s="143"/>
+      <c r="C167" s="143"/>
+      <c r="D167" s="143"/>
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="144"/>
-      <c r="B168" s="144"/>
-      <c r="C168" s="144"/>
-      <c r="D168" s="144"/>
+      <c r="A168" s="143"/>
+      <c r="B168" s="143"/>
+      <c r="C168" s="143"/>
+      <c r="D168" s="143"/>
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="144"/>
-      <c r="B169" s="144"/>
-      <c r="C169" s="144"/>
-      <c r="D169" s="144"/>
+      <c r="A169" s="143"/>
+      <c r="B169" s="143"/>
+      <c r="C169" s="143"/>
+      <c r="D169" s="143"/>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="144"/>
-      <c r="B170" s="144"/>
-      <c r="C170" s="144"/>
-      <c r="D170" s="144"/>
+      <c r="A170" s="143"/>
+      <c r="B170" s="143"/>
+      <c r="C170" s="143"/>
+      <c r="D170" s="143"/>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="144"/>
-      <c r="B171" s="144"/>
-      <c r="C171" s="144"/>
-      <c r="D171" s="144"/>
+      <c r="A171" s="143"/>
+      <c r="B171" s="143"/>
+      <c r="C171" s="143"/>
+      <c r="D171" s="143"/>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="144"/>
-      <c r="B172" s="144"/>
-      <c r="C172" s="144"/>
-      <c r="D172" s="144"/>
+      <c r="A172" s="143"/>
+      <c r="B172" s="143"/>
+      <c r="C172" s="143"/>
+      <c r="D172" s="143"/>
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="144"/>
-      <c r="B173" s="144"/>
-      <c r="C173" s="144"/>
-      <c r="D173" s="144"/>
+      <c r="A173" s="143"/>
+      <c r="B173" s="143"/>
+      <c r="C173" s="143"/>
+      <c r="D173" s="143"/>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="144"/>
-      <c r="B174" s="144"/>
-      <c r="C174" s="144"/>
-      <c r="D174" s="144"/>
+      <c r="A174" s="143"/>
+      <c r="B174" s="143"/>
+      <c r="C174" s="143"/>
+      <c r="D174" s="143"/>
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="144"/>
-      <c r="B175" s="144"/>
-      <c r="C175" s="144"/>
-      <c r="D175" s="144"/>
+      <c r="A175" s="143"/>
+      <c r="B175" s="143"/>
+      <c r="C175" s="143"/>
+      <c r="D175" s="143"/>
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="144"/>
-      <c r="B176" s="144"/>
-      <c r="C176" s="144"/>
-      <c r="D176" s="144"/>
+      <c r="A176" s="143"/>
+      <c r="B176" s="143"/>
+      <c r="C176" s="143"/>
+      <c r="D176" s="143"/>
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="144"/>
-      <c r="B177" s="144"/>
-      <c r="C177" s="144"/>
-      <c r="D177" s="144"/>
+      <c r="A177" s="143"/>
+      <c r="B177" s="143"/>
+      <c r="C177" s="143"/>
+      <c r="D177" s="143"/>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="144"/>
-      <c r="B178" s="144"/>
-      <c r="C178" s="144"/>
-      <c r="D178" s="144"/>
+      <c r="A178" s="143"/>
+      <c r="B178" s="143"/>
+      <c r="C178" s="143"/>
+      <c r="D178" s="143"/>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="144"/>
-      <c r="B179" s="144"/>
-      <c r="C179" s="144"/>
-      <c r="D179" s="144"/>
+      <c r="A179" s="143"/>
+      <c r="B179" s="143"/>
+      <c r="C179" s="143"/>
+      <c r="D179" s="143"/>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="144"/>
-      <c r="B180" s="144"/>
-      <c r="C180" s="144"/>
-      <c r="D180" s="144"/>
+      <c r="A180" s="143"/>
+      <c r="B180" s="143"/>
+      <c r="C180" s="143"/>
+      <c r="D180" s="143"/>
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="144"/>
-      <c r="B181" s="144"/>
-      <c r="C181" s="144"/>
-      <c r="D181" s="144"/>
+      <c r="A181" s="143"/>
+      <c r="B181" s="143"/>
+      <c r="C181" s="143"/>
+      <c r="D181" s="143"/>
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="144"/>
-      <c r="B182" s="144"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="144"/>
+      <c r="A182" s="143"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="143"/>
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="144"/>
-      <c r="B183" s="144"/>
-      <c r="C183" s="144"/>
-      <c r="D183" s="144"/>
+      <c r="A183" s="143"/>
+      <c r="B183" s="143"/>
+      <c r="C183" s="143"/>
+      <c r="D183" s="143"/>
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="144"/>
-      <c r="B184" s="144"/>
-      <c r="C184" s="144"/>
-      <c r="D184" s="144"/>
+      <c r="A184" s="143"/>
+      <c r="B184" s="143"/>
+      <c r="C184" s="143"/>
+      <c r="D184" s="143"/>
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="144"/>
-      <c r="B185" s="144"/>
-      <c r="C185" s="144"/>
-      <c r="D185" s="144"/>
+      <c r="A185" s="143"/>
+      <c r="B185" s="143"/>
+      <c r="C185" s="143"/>
+      <c r="D185" s="143"/>
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="144"/>
-      <c r="B186" s="144"/>
-      <c r="C186" s="144"/>
-      <c r="D186" s="144"/>
+      <c r="A186" s="143"/>
+      <c r="B186" s="143"/>
+      <c r="C186" s="143"/>
+      <c r="D186" s="143"/>
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="144"/>
-      <c r="B187" s="144"/>
-      <c r="C187" s="144"/>
-      <c r="D187" s="144"/>
+      <c r="A187" s="143"/>
+      <c r="B187" s="143"/>
+      <c r="C187" s="143"/>
+      <c r="D187" s="143"/>
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="144"/>
-      <c r="B188" s="144"/>
-      <c r="C188" s="144"/>
-      <c r="D188" s="144"/>
+      <c r="A188" s="143"/>
+      <c r="B188" s="143"/>
+      <c r="C188" s="143"/>
+      <c r="D188" s="143"/>
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="144"/>
-      <c r="B189" s="144"/>
-      <c r="C189" s="144"/>
-      <c r="D189" s="144"/>
+      <c r="A189" s="143"/>
+      <c r="B189" s="143"/>
+      <c r="C189" s="143"/>
+      <c r="D189" s="143"/>
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="144"/>
-      <c r="B190" s="144"/>
-      <c r="C190" s="144"/>
-      <c r="D190" s="144"/>
+      <c r="A190" s="143"/>
+      <c r="B190" s="143"/>
+      <c r="C190" s="143"/>
+      <c r="D190" s="143"/>
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="144"/>
-      <c r="B191" s="144"/>
-      <c r="C191" s="144"/>
-      <c r="D191" s="144"/>
+      <c r="A191" s="143"/>
+      <c r="B191" s="143"/>
+      <c r="C191" s="143"/>
+      <c r="D191" s="143"/>
     </row>
     <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="144"/>
-      <c r="B192" s="144"/>
-      <c r="C192" s="144"/>
-      <c r="D192" s="144"/>
+      <c r="A192" s="143"/>
+      <c r="B192" s="143"/>
+      <c r="C192" s="143"/>
+      <c r="D192" s="143"/>
     </row>
     <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="144"/>
-      <c r="B193" s="144"/>
-      <c r="C193" s="144"/>
-      <c r="D193" s="144"/>
+      <c r="A193" s="143"/>
+      <c r="B193" s="143"/>
+      <c r="C193" s="143"/>
+      <c r="D193" s="143"/>
     </row>
     <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="144"/>
-      <c r="B194" s="144"/>
-      <c r="C194" s="144"/>
-      <c r="D194" s="144"/>
+      <c r="A194" s="143"/>
+      <c r="B194" s="143"/>
+      <c r="C194" s="143"/>
+      <c r="D194" s="143"/>
     </row>
     <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="144"/>
-      <c r="B195" s="144"/>
-      <c r="C195" s="144"/>
-      <c r="D195" s="144"/>
+      <c r="A195" s="143"/>
+      <c r="B195" s="143"/>
+      <c r="C195" s="143"/>
+      <c r="D195" s="143"/>
     </row>
     <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="144"/>
-      <c r="B196" s="144"/>
-      <c r="C196" s="144"/>
-      <c r="D196" s="144"/>
+      <c r="A196" s="143"/>
+      <c r="B196" s="143"/>
+      <c r="C196" s="143"/>
+      <c r="D196" s="143"/>
     </row>
     <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="144"/>
-      <c r="B197" s="144"/>
-      <c r="C197" s="144"/>
-      <c r="D197" s="144"/>
+      <c r="A197" s="143"/>
+      <c r="B197" s="143"/>
+      <c r="C197" s="143"/>
+      <c r="D197" s="143"/>
     </row>
     <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="144"/>
-      <c r="B198" s="144"/>
-      <c r="C198" s="144"/>
-      <c r="D198" s="144"/>
+      <c r="A198" s="143"/>
+      <c r="B198" s="143"/>
+      <c r="C198" s="143"/>
+      <c r="D198" s="143"/>
     </row>
     <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="144"/>
-      <c r="B199" s="144"/>
-      <c r="C199" s="144"/>
-      <c r="D199" s="144"/>
+      <c r="A199" s="143"/>
+      <c r="B199" s="143"/>
+      <c r="C199" s="143"/>
+      <c r="D199" s="143"/>
     </row>
     <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="144"/>
-      <c r="B200" s="144"/>
-      <c r="C200" s="144"/>
-      <c r="D200" s="144"/>
+      <c r="A200" s="143"/>
+      <c r="B200" s="143"/>
+      <c r="C200" s="143"/>
+      <c r="D200" s="143"/>
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="144"/>
-      <c r="B201" s="144"/>
-      <c r="C201" s="144"/>
-      <c r="D201" s="144"/>
+      <c r="A201" s="143"/>
+      <c r="B201" s="143"/>
+      <c r="C201" s="143"/>
+      <c r="D201" s="143"/>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="144"/>
-      <c r="B202" s="144"/>
-      <c r="C202" s="144"/>
-      <c r="D202" s="144"/>
+      <c r="A202" s="143"/>
+      <c r="B202" s="143"/>
+      <c r="C202" s="143"/>
+      <c r="D202" s="143"/>
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="144"/>
-      <c r="B203" s="144"/>
-      <c r="C203" s="144"/>
-      <c r="D203" s="144"/>
+      <c r="A203" s="143"/>
+      <c r="B203" s="143"/>
+      <c r="C203" s="143"/>
+      <c r="D203" s="143"/>
     </row>
     <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="144"/>
-      <c r="B204" s="144"/>
-      <c r="C204" s="144"/>
-      <c r="D204" s="144"/>
+      <c r="A204" s="143"/>
+      <c r="B204" s="143"/>
+      <c r="C204" s="143"/>
+      <c r="D204" s="143"/>
     </row>
     <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="144"/>
-      <c r="B205" s="144"/>
-      <c r="C205" s="144"/>
-      <c r="D205" s="144"/>
+      <c r="A205" s="143"/>
+      <c r="B205" s="143"/>
+      <c r="C205" s="143"/>
+      <c r="D205" s="143"/>
     </row>
     <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="144"/>
-      <c r="B206" s="144"/>
-      <c r="C206" s="144"/>
-      <c r="D206" s="144"/>
+      <c r="A206" s="143"/>
+      <c r="B206" s="143"/>
+      <c r="C206" s="143"/>
+      <c r="D206" s="143"/>
     </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="144"/>
-      <c r="B207" s="144"/>
-      <c r="C207" s="144"/>
-      <c r="D207" s="144"/>
+      <c r="A207" s="143"/>
+      <c r="B207" s="143"/>
+      <c r="C207" s="143"/>
+      <c r="D207" s="143"/>
     </row>
     <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="144"/>
-      <c r="B208" s="144"/>
-      <c r="C208" s="144"/>
-      <c r="D208" s="144"/>
+      <c r="A208" s="143"/>
+      <c r="B208" s="143"/>
+      <c r="C208" s="143"/>
+      <c r="D208" s="143"/>
     </row>
     <row r="209" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="144"/>
-      <c r="B209" s="144"/>
-      <c r="C209" s="144"/>
-      <c r="D209" s="144"/>
+      <c r="A209" s="143"/>
+      <c r="B209" s="143"/>
+      <c r="C209" s="143"/>
+      <c r="D209" s="143"/>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="144"/>
-      <c r="B210" s="144"/>
-      <c r="C210" s="144"/>
-      <c r="D210" s="144"/>
+      <c r="A210" s="143"/>
+      <c r="B210" s="143"/>
+      <c r="C210" s="143"/>
+      <c r="D210" s="143"/>
     </row>
     <row r="211" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="144"/>
-      <c r="B211" s="144"/>
-      <c r="C211" s="144"/>
-      <c r="D211" s="144"/>
+      <c r="A211" s="143"/>
+      <c r="B211" s="143"/>
+      <c r="C211" s="143"/>
+      <c r="D211" s="143"/>
     </row>
     <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="144"/>
-      <c r="B212" s="144"/>
-      <c r="C212" s="144"/>
-      <c r="D212" s="144"/>
+      <c r="A212" s="143"/>
+      <c r="B212" s="143"/>
+      <c r="C212" s="143"/>
+      <c r="D212" s="143"/>
     </row>
     <row r="213" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="144"/>
-      <c r="B213" s="144"/>
-      <c r="C213" s="144"/>
-      <c r="D213" s="144"/>
+      <c r="A213" s="143"/>
+      <c r="B213" s="143"/>
+      <c r="C213" s="143"/>
+      <c r="D213" s="143"/>
     </row>
     <row r="214" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="144"/>
-      <c r="B214" s="144"/>
-      <c r="C214" s="144"/>
-      <c r="D214" s="144"/>
+      <c r="A214" s="143"/>
+      <c r="B214" s="143"/>
+      <c r="C214" s="143"/>
+      <c r="D214" s="143"/>
     </row>
     <row r="215" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="144"/>
-      <c r="B215" s="144"/>
-      <c r="C215" s="144"/>
-      <c r="D215" s="144"/>
+      <c r="A215" s="143"/>
+      <c r="B215" s="143"/>
+      <c r="C215" s="143"/>
+      <c r="D215" s="143"/>
     </row>
     <row r="216" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="144"/>
-      <c r="B216" s="144"/>
-      <c r="C216" s="144"/>
-      <c r="D216" s="144"/>
+      <c r="A216" s="143"/>
+      <c r="B216" s="143"/>
+      <c r="C216" s="143"/>
+      <c r="D216" s="143"/>
     </row>
     <row r="217" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="144"/>
-      <c r="B217" s="144"/>
-      <c r="C217" s="144"/>
-      <c r="D217" s="144"/>
+      <c r="A217" s="143"/>
+      <c r="B217" s="143"/>
+      <c r="C217" s="143"/>
+      <c r="D217" s="143"/>
     </row>
     <row r="218" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="144"/>
-      <c r="B218" s="144"/>
-      <c r="C218" s="144"/>
-      <c r="D218" s="144"/>
+      <c r="A218" s="143"/>
+      <c r="B218" s="143"/>
+      <c r="C218" s="143"/>
+      <c r="D218" s="143"/>
     </row>
     <row r="219" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="144"/>
-      <c r="B219" s="144"/>
-      <c r="C219" s="144"/>
-      <c r="D219" s="144"/>
+      <c r="A219" s="143"/>
+      <c r="B219" s="143"/>
+      <c r="C219" s="143"/>
+      <c r="D219" s="143"/>
     </row>
     <row r="220" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="144"/>
-      <c r="B220" s="144"/>
-      <c r="C220" s="144"/>
-      <c r="D220" s="144"/>
+      <c r="A220" s="143"/>
+      <c r="B220" s="143"/>
+      <c r="C220" s="143"/>
+      <c r="D220" s="143"/>
     </row>
     <row r="221" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="144"/>
-      <c r="B221" s="144"/>
-      <c r="C221" s="144"/>
-      <c r="D221" s="144"/>
+      <c r="A221" s="143"/>
+      <c r="B221" s="143"/>
+      <c r="C221" s="143"/>
+      <c r="D221" s="143"/>
     </row>
     <row r="222" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="144"/>
-      <c r="B222" s="144"/>
-      <c r="C222" s="144"/>
-      <c r="D222" s="144"/>
+      <c r="A222" s="143"/>
+      <c r="B222" s="143"/>
+      <c r="C222" s="143"/>
+      <c r="D222" s="143"/>
     </row>
     <row r="223" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="144"/>
-      <c r="B223" s="144"/>
-      <c r="C223" s="144"/>
-      <c r="D223" s="144"/>
+      <c r="A223" s="143"/>
+      <c r="B223" s="143"/>
+      <c r="C223" s="143"/>
+      <c r="D223" s="143"/>
     </row>
     <row r="224" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="144"/>
-      <c r="B224" s="144"/>
-      <c r="C224" s="144"/>
-      <c r="D224" s="144"/>
+      <c r="A224" s="143"/>
+      <c r="B224" s="143"/>
+      <c r="C224" s="143"/>
+      <c r="D224" s="143"/>
     </row>
     <row r="225" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="144"/>
-      <c r="B225" s="144"/>
-      <c r="C225" s="144"/>
-      <c r="D225" s="144"/>
+      <c r="A225" s="143"/>
+      <c r="B225" s="143"/>
+      <c r="C225" s="143"/>
+      <c r="D225" s="143"/>
     </row>
     <row r="226" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="144"/>
-      <c r="B226" s="144"/>
-      <c r="C226" s="144"/>
-      <c r="D226" s="144"/>
+      <c r="A226" s="143"/>
+      <c r="B226" s="143"/>
+      <c r="C226" s="143"/>
+      <c r="D226" s="143"/>
     </row>
     <row r="227" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="144"/>
-      <c r="B227" s="144"/>
-      <c r="C227" s="144"/>
-      <c r="D227" s="144"/>
+      <c r="A227" s="143"/>
+      <c r="B227" s="143"/>
+      <c r="C227" s="143"/>
+      <c r="D227" s="143"/>
     </row>
     <row r="228" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="144"/>
-      <c r="B228" s="144"/>
-      <c r="C228" s="144"/>
-      <c r="D228" s="144"/>
+      <c r="A228" s="143"/>
+      <c r="B228" s="143"/>
+      <c r="C228" s="143"/>
+      <c r="D228" s="143"/>
     </row>
     <row r="229" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="144"/>
-      <c r="B229" s="144"/>
-      <c r="C229" s="144"/>
-      <c r="D229" s="144"/>
+      <c r="A229" s="143"/>
+      <c r="B229" s="143"/>
+      <c r="C229" s="143"/>
+      <c r="D229" s="143"/>
     </row>
     <row r="230" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="144"/>
-      <c r="B230" s="144"/>
-      <c r="C230" s="144"/>
-      <c r="D230" s="144"/>
+      <c r="A230" s="143"/>
+      <c r="B230" s="143"/>
+      <c r="C230" s="143"/>
+      <c r="D230" s="143"/>
     </row>
     <row r="231" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="144"/>
-      <c r="B231" s="144"/>
-      <c r="C231" s="144"/>
-      <c r="D231" s="144"/>
+      <c r="A231" s="143"/>
+      <c r="B231" s="143"/>
+      <c r="C231" s="143"/>
+      <c r="D231" s="143"/>
     </row>
     <row r="232" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="144"/>
-      <c r="B232" s="144"/>
-      <c r="C232" s="144"/>
-      <c r="D232" s="144"/>
+      <c r="A232" s="143"/>
+      <c r="B232" s="143"/>
+      <c r="C232" s="143"/>
+      <c r="D232" s="143"/>
     </row>
     <row r="233" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="144"/>
-      <c r="B233" s="144"/>
-      <c r="C233" s="144"/>
-      <c r="D233" s="144"/>
+      <c r="A233" s="143"/>
+      <c r="B233" s="143"/>
+      <c r="C233" s="143"/>
+      <c r="D233" s="143"/>
     </row>
     <row r="234" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="144"/>
-      <c r="B234" s="144"/>
-      <c r="C234" s="144"/>
-      <c r="D234" s="144"/>
+      <c r="A234" s="143"/>
+      <c r="B234" s="143"/>
+      <c r="C234" s="143"/>
+      <c r="D234" s="143"/>
     </row>
     <row r="235" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="144"/>
-      <c r="B235" s="144"/>
-      <c r="C235" s="144"/>
-      <c r="D235" s="144"/>
+      <c r="A235" s="143"/>
+      <c r="B235" s="143"/>
+      <c r="C235" s="143"/>
+      <c r="D235" s="143"/>
     </row>
     <row r="236" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="144"/>
-      <c r="B236" s="144"/>
-      <c r="C236" s="144"/>
-      <c r="D236" s="144"/>
+      <c r="A236" s="143"/>
+      <c r="B236" s="143"/>
+      <c r="C236" s="143"/>
+      <c r="D236" s="143"/>
     </row>
     <row r="237" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="144"/>
-      <c r="B237" s="144"/>
-      <c r="C237" s="144"/>
-      <c r="D237" s="144"/>
+      <c r="A237" s="143"/>
+      <c r="B237" s="143"/>
+      <c r="C237" s="143"/>
+      <c r="D237" s="143"/>
     </row>
     <row r="238" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="144"/>
-      <c r="B238" s="144"/>
-      <c r="C238" s="144"/>
-      <c r="D238" s="144"/>
+      <c r="A238" s="143"/>
+      <c r="B238" s="143"/>
+      <c r="C238" s="143"/>
+      <c r="D238" s="143"/>
     </row>
     <row r="239" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="144"/>
-      <c r="B239" s="144"/>
-      <c r="C239" s="144"/>
-      <c r="D239" s="144"/>
+      <c r="A239" s="143"/>
+      <c r="B239" s="143"/>
+      <c r="C239" s="143"/>
+      <c r="D239" s="143"/>
     </row>
     <row r="240" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="144"/>
-      <c r="B240" s="144"/>
-      <c r="C240" s="144"/>
-      <c r="D240" s="144"/>
+      <c r="A240" s="143"/>
+      <c r="B240" s="143"/>
+      <c r="C240" s="143"/>
+      <c r="D240" s="143"/>
     </row>
     <row r="241" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="144"/>
-      <c r="B241" s="144"/>
-      <c r="C241" s="144"/>
-      <c r="D241" s="144"/>
+      <c r="A241" s="143"/>
+      <c r="B241" s="143"/>
+      <c r="C241" s="143"/>
+      <c r="D241" s="143"/>
     </row>
     <row r="242" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="144"/>
-      <c r="B242" s="144"/>
-      <c r="C242" s="144"/>
-      <c r="D242" s="144"/>
+      <c r="A242" s="143"/>
+      <c r="B242" s="143"/>
+      <c r="C242" s="143"/>
+      <c r="D242" s="143"/>
     </row>
     <row r="243" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="144"/>
-      <c r="B243" s="144"/>
-      <c r="C243" s="144"/>
-      <c r="D243" s="144"/>
+      <c r="A243" s="143"/>
+      <c r="B243" s="143"/>
+      <c r="C243" s="143"/>
+      <c r="D243" s="143"/>
     </row>
     <row r="244" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="144"/>
-      <c r="B244" s="144"/>
-      <c r="C244" s="144"/>
-      <c r="D244" s="144"/>
+      <c r="A244" s="143"/>
+      <c r="B244" s="143"/>
+      <c r="C244" s="143"/>
+      <c r="D244" s="143"/>
     </row>
     <row r="245" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="144"/>
-      <c r="B245" s="144"/>
-      <c r="C245" s="144"/>
-      <c r="D245" s="144"/>
+      <c r="A245" s="143"/>
+      <c r="B245" s="143"/>
+      <c r="C245" s="143"/>
+      <c r="D245" s="143"/>
     </row>
     <row r="246" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="144"/>
-      <c r="B246" s="144"/>
-      <c r="C246" s="144"/>
-      <c r="D246" s="144"/>
+      <c r="A246" s="143"/>
+      <c r="B246" s="143"/>
+      <c r="C246" s="143"/>
+      <c r="D246" s="143"/>
     </row>
     <row r="247" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="144"/>
-      <c r="B247" s="144"/>
-      <c r="C247" s="144"/>
-      <c r="D247" s="144"/>
+      <c r="A247" s="143"/>
+      <c r="B247" s="143"/>
+      <c r="C247" s="143"/>
+      <c r="D247" s="143"/>
     </row>
     <row r="248" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="144"/>
-      <c r="B248" s="144"/>
-      <c r="C248" s="144"/>
-      <c r="D248" s="144"/>
+      <c r="A248" s="143"/>
+      <c r="B248" s="143"/>
+      <c r="C248" s="143"/>
+      <c r="D248" s="143"/>
     </row>
     <row r="249" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="144"/>
-      <c r="B249" s="144"/>
-      <c r="C249" s="144"/>
-      <c r="D249" s="144"/>
+      <c r="A249" s="143"/>
+      <c r="B249" s="143"/>
+      <c r="C249" s="143"/>
+      <c r="D249" s="143"/>
     </row>
     <row r="250" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="144"/>
-      <c r="B250" s="144"/>
-      <c r="C250" s="144"/>
-      <c r="D250" s="144"/>
+      <c r="A250" s="143"/>
+      <c r="B250" s="143"/>
+      <c r="C250" s="143"/>
+      <c r="D250" s="143"/>
     </row>
     <row r="251" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="144"/>
-      <c r="B251" s="144"/>
-      <c r="C251" s="144"/>
-      <c r="D251" s="144"/>
+      <c r="A251" s="143"/>
+      <c r="B251" s="143"/>
+      <c r="C251" s="143"/>
+      <c r="D251" s="143"/>
     </row>
     <row r="252" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="144"/>
-      <c r="B252" s="144"/>
-      <c r="C252" s="144"/>
-      <c r="D252" s="144"/>
+      <c r="A252" s="143"/>
+      <c r="B252" s="143"/>
+      <c r="C252" s="143"/>
+      <c r="D252" s="143"/>
     </row>
     <row r="253" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="144"/>
-      <c r="B253" s="144"/>
-      <c r="C253" s="144"/>
-      <c r="D253" s="144"/>
+      <c r="A253" s="143"/>
+      <c r="B253" s="143"/>
+      <c r="C253" s="143"/>
+      <c r="D253" s="143"/>
     </row>
     <row r="254" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="144"/>
-      <c r="B254" s="144"/>
-      <c r="C254" s="144"/>
-      <c r="D254" s="144"/>
+      <c r="A254" s="143"/>
+      <c r="B254" s="143"/>
+      <c r="C254" s="143"/>
+      <c r="D254" s="143"/>
     </row>
     <row r="255" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="144"/>
-      <c r="B255" s="144"/>
-      <c r="C255" s="144"/>
-      <c r="D255" s="144"/>
+      <c r="A255" s="143"/>
+      <c r="B255" s="143"/>
+      <c r="C255" s="143"/>
+      <c r="D255" s="143"/>
     </row>
     <row r="256" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="144"/>
-      <c r="B256" s="144"/>
-      <c r="C256" s="144"/>
-      <c r="D256" s="144"/>
+      <c r="A256" s="143"/>
+      <c r="B256" s="143"/>
+      <c r="C256" s="143"/>
+      <c r="D256" s="143"/>
     </row>
     <row r="257" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="144"/>
-      <c r="B257" s="144"/>
-      <c r="C257" s="144"/>
-      <c r="D257" s="144"/>
+      <c r="A257" s="143"/>
+      <c r="B257" s="143"/>
+      <c r="C257" s="143"/>
+      <c r="D257" s="143"/>
     </row>
     <row r="258" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="144"/>
-      <c r="B258" s="144"/>
-      <c r="C258" s="144"/>
-      <c r="D258" s="144"/>
+      <c r="A258" s="143"/>
+      <c r="B258" s="143"/>
+      <c r="C258" s="143"/>
+      <c r="D258" s="143"/>
     </row>
     <row r="259" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="144"/>
-      <c r="B259" s="144"/>
-      <c r="C259" s="144"/>
-      <c r="D259" s="144"/>
+      <c r="A259" s="143"/>
+      <c r="B259" s="143"/>
+      <c r="C259" s="143"/>
+      <c r="D259" s="143"/>
     </row>
     <row r="260" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="144"/>
-      <c r="B260" s="144"/>
-      <c r="C260" s="144"/>
-      <c r="D260" s="144"/>
+      <c r="A260" s="143"/>
+      <c r="B260" s="143"/>
+      <c r="C260" s="143"/>
+      <c r="D260" s="143"/>
     </row>
     <row r="261" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="144"/>
-      <c r="B261" s="144"/>
-      <c r="C261" s="144"/>
-      <c r="D261" s="144"/>
+      <c r="A261" s="143"/>
+      <c r="B261" s="143"/>
+      <c r="C261" s="143"/>
+      <c r="D261" s="143"/>
     </row>
     <row r="262" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="144"/>
-      <c r="B262" s="144"/>
-      <c r="C262" s="144"/>
-      <c r="D262" s="144"/>
+      <c r="A262" s="143"/>
+      <c r="B262" s="143"/>
+      <c r="C262" s="143"/>
+      <c r="D262" s="143"/>
     </row>
     <row r="263" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="144"/>
-      <c r="B263" s="144"/>
-      <c r="C263" s="144"/>
-      <c r="D263" s="144"/>
+      <c r="A263" s="143"/>
+      <c r="B263" s="143"/>
+      <c r="C263" s="143"/>
+      <c r="D263" s="143"/>
     </row>
     <row r="264" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="144"/>
-      <c r="B264" s="144"/>
-      <c r="C264" s="144"/>
-      <c r="D264" s="144"/>
+      <c r="A264" s="143"/>
+      <c r="B264" s="143"/>
+      <c r="C264" s="143"/>
+      <c r="D264" s="143"/>
     </row>
     <row r="265" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="144"/>
-      <c r="B265" s="144"/>
-      <c r="C265" s="144"/>
-      <c r="D265" s="144"/>
+      <c r="A265" s="143"/>
+      <c r="B265" s="143"/>
+      <c r="C265" s="143"/>
+      <c r="D265" s="143"/>
     </row>
     <row r="266" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="144"/>
-      <c r="B266" s="144"/>
-      <c r="C266" s="144"/>
-      <c r="D266" s="144"/>
+      <c r="A266" s="143"/>
+      <c r="B266" s="143"/>
+      <c r="C266" s="143"/>
+      <c r="D266" s="143"/>
     </row>
     <row r="267" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="144"/>
-      <c r="B267" s="144"/>
-      <c r="C267" s="144"/>
-      <c r="D267" s="144"/>
+      <c r="A267" s="143"/>
+      <c r="B267" s="143"/>
+      <c r="C267" s="143"/>
+      <c r="D267" s="143"/>
     </row>
     <row r="268" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="144"/>
-      <c r="B268" s="144"/>
-      <c r="C268" s="144"/>
-      <c r="D268" s="144"/>
+      <c r="A268" s="143"/>
+      <c r="B268" s="143"/>
+      <c r="C268" s="143"/>
+      <c r="D268" s="143"/>
     </row>
     <row r="269" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="144"/>
-      <c r="B269" s="144"/>
-      <c r="C269" s="144"/>
-      <c r="D269" s="144"/>
+      <c r="A269" s="143"/>
+      <c r="B269" s="143"/>
+      <c r="C269" s="143"/>
+      <c r="D269" s="143"/>
     </row>
     <row r="270" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="144"/>
-      <c r="B270" s="144"/>
-      <c r="C270" s="144"/>
-      <c r="D270" s="144"/>
+      <c r="A270" s="143"/>
+      <c r="B270" s="143"/>
+      <c r="C270" s="143"/>
+      <c r="D270" s="143"/>
     </row>
     <row r="271" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="144"/>
-      <c r="B271" s="144"/>
-      <c r="C271" s="144"/>
-      <c r="D271" s="144"/>
+      <c r="A271" s="143"/>
+      <c r="B271" s="143"/>
+      <c r="C271" s="143"/>
+      <c r="D271" s="143"/>
     </row>
     <row r="272" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="144"/>
-      <c r="B272" s="144"/>
-      <c r="C272" s="144"/>
-      <c r="D272" s="144"/>
+      <c r="A272" s="143"/>
+      <c r="B272" s="143"/>
+      <c r="C272" s="143"/>
+      <c r="D272" s="143"/>
     </row>
     <row r="273" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="144"/>
-      <c r="B273" s="144"/>
-      <c r="C273" s="144"/>
-      <c r="D273" s="144"/>
+      <c r="A273" s="143"/>
+      <c r="B273" s="143"/>
+      <c r="C273" s="143"/>
+      <c r="D273" s="143"/>
     </row>
     <row r="274" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="144"/>
-      <c r="B274" s="144"/>
-      <c r="C274" s="144"/>
-      <c r="D274" s="144"/>
+      <c r="A274" s="143"/>
+      <c r="B274" s="143"/>
+      <c r="C274" s="143"/>
+      <c r="D274" s="143"/>
     </row>
     <row r="275" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="144"/>
-      <c r="B275" s="144"/>
-      <c r="C275" s="144"/>
-      <c r="D275" s="144"/>
+      <c r="A275" s="143"/>
+      <c r="B275" s="143"/>
+      <c r="C275" s="143"/>
+      <c r="D275" s="143"/>
     </row>
     <row r="276" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="144"/>
-      <c r="B276" s="144"/>
-      <c r="C276" s="144"/>
-      <c r="D276" s="144"/>
+      <c r="A276" s="143"/>
+      <c r="B276" s="143"/>
+      <c r="C276" s="143"/>
+      <c r="D276" s="143"/>
     </row>
     <row r="277" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="144"/>
-      <c r="B277" s="144"/>
-      <c r="C277" s="144"/>
-      <c r="D277" s="144"/>
+      <c r="A277" s="143"/>
+      <c r="B277" s="143"/>
+      <c r="C277" s="143"/>
+      <c r="D277" s="143"/>
     </row>
     <row r="278" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="144"/>
-      <c r="B278" s="144"/>
-      <c r="C278" s="144"/>
-      <c r="D278" s="144"/>
+      <c r="A278" s="143"/>
+      <c r="B278" s="143"/>
+      <c r="C278" s="143"/>
+      <c r="D278" s="143"/>
     </row>
     <row r="279" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="144"/>
-      <c r="B279" s="144"/>
-      <c r="C279" s="144"/>
-      <c r="D279" s="144"/>
+      <c r="A279" s="143"/>
+      <c r="B279" s="143"/>
+      <c r="C279" s="143"/>
+      <c r="D279" s="143"/>
     </row>
     <row r="280" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="144"/>
-      <c r="B280" s="144"/>
-      <c r="C280" s="144"/>
-      <c r="D280" s="144"/>
+      <c r="A280" s="143"/>
+      <c r="B280" s="143"/>
+      <c r="C280" s="143"/>
+      <c r="D280" s="143"/>
     </row>
     <row r="281" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="144"/>
-      <c r="B281" s="144"/>
-      <c r="C281" s="144"/>
-      <c r="D281" s="144"/>
+      <c r="A281" s="143"/>
+      <c r="B281" s="143"/>
+      <c r="C281" s="143"/>
+      <c r="D281" s="143"/>
     </row>
     <row r="282" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="144"/>
-      <c r="B282" s="144"/>
-      <c r="C282" s="144"/>
-      <c r="D282" s="144"/>
+      <c r="A282" s="143"/>
+      <c r="B282" s="143"/>
+      <c r="C282" s="143"/>
+      <c r="D282" s="143"/>
     </row>
     <row r="283" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="144"/>
-      <c r="B283" s="144"/>
-      <c r="C283" s="144"/>
-      <c r="D283" s="144"/>
+      <c r="A283" s="143"/>
+      <c r="B283" s="143"/>
+      <c r="C283" s="143"/>
+      <c r="D283" s="143"/>
     </row>
     <row r="284" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="144"/>
-      <c r="B284" s="144"/>
-      <c r="C284" s="144"/>
-      <c r="D284" s="144"/>
+      <c r="A284" s="143"/>
+      <c r="B284" s="143"/>
+      <c r="C284" s="143"/>
+      <c r="D284" s="143"/>
     </row>
     <row r="285" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="144"/>
-      <c r="B285" s="144"/>
-      <c r="C285" s="144"/>
-      <c r="D285" s="144"/>
+      <c r="A285" s="143"/>
+      <c r="B285" s="143"/>
+      <c r="C285" s="143"/>
+      <c r="D285" s="143"/>
     </row>
     <row r="286" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="144"/>
-      <c r="B286" s="144"/>
-      <c r="C286" s="144"/>
-      <c r="D286" s="144"/>
+      <c r="A286" s="143"/>
+      <c r="B286" s="143"/>
+      <c r="C286" s="143"/>
+      <c r="D286" s="143"/>
     </row>
     <row r="287" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="144"/>
-      <c r="B287" s="144"/>
-      <c r="C287" s="144"/>
-      <c r="D287" s="144"/>
+      <c r="A287" s="143"/>
+      <c r="B287" s="143"/>
+      <c r="C287" s="143"/>
+      <c r="D287" s="143"/>
     </row>
     <row r="288" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="144"/>
-      <c r="B288" s="144"/>
-      <c r="C288" s="144"/>
-      <c r="D288" s="144"/>
+      <c r="A288" s="143"/>
+      <c r="B288" s="143"/>
+      <c r="C288" s="143"/>
+      <c r="D288" s="143"/>
     </row>
     <row r="289" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="144"/>
-      <c r="B289" s="144"/>
-      <c r="C289" s="144"/>
-      <c r="D289" s="144"/>
+      <c r="A289" s="143"/>
+      <c r="B289" s="143"/>
+      <c r="C289" s="143"/>
+      <c r="D289" s="143"/>
     </row>
     <row r="290" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="144"/>
-      <c r="B290" s="144"/>
-      <c r="C290" s="144"/>
-      <c r="D290" s="144"/>
+      <c r="A290" s="143"/>
+      <c r="B290" s="143"/>
+      <c r="C290" s="143"/>
+      <c r="D290" s="143"/>
     </row>
     <row r="291" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="144"/>
-      <c r="B291" s="144"/>
-      <c r="C291" s="144"/>
-      <c r="D291" s="144"/>
+      <c r="A291" s="143"/>
+      <c r="B291" s="143"/>
+      <c r="C291" s="143"/>
+      <c r="D291" s="143"/>
     </row>
     <row r="292" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="144"/>
-      <c r="B292" s="144"/>
-      <c r="C292" s="144"/>
-      <c r="D292" s="144"/>
+      <c r="A292" s="143"/>
+      <c r="B292" s="143"/>
+      <c r="C292" s="143"/>
+      <c r="D292" s="143"/>
     </row>
     <row r="293" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="144"/>
-      <c r="B293" s="144"/>
-      <c r="C293" s="144"/>
-      <c r="D293" s="144"/>
+      <c r="A293" s="143"/>
+      <c r="B293" s="143"/>
+      <c r="C293" s="143"/>
+      <c r="D293" s="143"/>
     </row>
     <row r="294" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="144"/>
-      <c r="B294" s="144"/>
-      <c r="C294" s="144"/>
-      <c r="D294" s="144"/>
+      <c r="A294" s="143"/>
+      <c r="B294" s="143"/>
+      <c r="C294" s="143"/>
+      <c r="D294" s="143"/>
     </row>
     <row r="295" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="144"/>
-      <c r="B295" s="144"/>
-      <c r="C295" s="144"/>
-      <c r="D295" s="144"/>
+      <c r="A295" s="143"/>
+      <c r="B295" s="143"/>
+      <c r="C295" s="143"/>
+      <c r="D295" s="143"/>
     </row>
     <row r="296" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="144"/>
-      <c r="B296" s="144"/>
-      <c r="C296" s="144"/>
-      <c r="D296" s="144"/>
+      <c r="A296" s="143"/>
+      <c r="B296" s="143"/>
+      <c r="C296" s="143"/>
+      <c r="D296" s="143"/>
     </row>
     <row r="297" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="144"/>
-      <c r="B297" s="144"/>
-      <c r="C297" s="144"/>
-      <c r="D297" s="144"/>
+      <c r="A297" s="143"/>
+      <c r="B297" s="143"/>
+      <c r="C297" s="143"/>
+      <c r="D297" s="143"/>
     </row>
     <row r="298" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="144"/>
-      <c r="B298" s="144"/>
-      <c r="C298" s="144"/>
-      <c r="D298" s="144"/>
+      <c r="A298" s="143"/>
+      <c r="B298" s="143"/>
+      <c r="C298" s="143"/>
+      <c r="D298" s="143"/>
     </row>
     <row r="299" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="144"/>
-      <c r="B299" s="144"/>
-      <c r="C299" s="144"/>
-      <c r="D299" s="144"/>
+      <c r="A299" s="143"/>
+      <c r="B299" s="143"/>
+      <c r="C299" s="143"/>
+      <c r="D299" s="143"/>
     </row>
     <row r="300" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="144"/>
-      <c r="B300" s="144"/>
-      <c r="C300" s="144"/>
-      <c r="D300" s="144"/>
+      <c r="A300" s="143"/>
+      <c r="B300" s="143"/>
+      <c r="C300" s="143"/>
+      <c r="D300" s="143"/>
     </row>
     <row r="301" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="144"/>
-      <c r="B301" s="144"/>
-      <c r="C301" s="144"/>
-      <c r="D301" s="144"/>
+      <c r="A301" s="143"/>
+      <c r="B301" s="143"/>
+      <c r="C301" s="143"/>
+      <c r="D301" s="143"/>
     </row>
     <row r="302" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="144"/>
-      <c r="B302" s="144"/>
-      <c r="C302" s="144"/>
-      <c r="D302" s="144"/>
+      <c r="A302" s="143"/>
+      <c r="B302" s="143"/>
+      <c r="C302" s="143"/>
+      <c r="D302" s="143"/>
     </row>
     <row r="303" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="144"/>
-      <c r="B303" s="144"/>
-      <c r="C303" s="144"/>
-      <c r="D303" s="144"/>
+      <c r="A303" s="143"/>
+      <c r="B303" s="143"/>
+      <c r="C303" s="143"/>
+      <c r="D303" s="143"/>
     </row>
     <row r="304" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="144"/>
-      <c r="B304" s="144"/>
-      <c r="C304" s="144"/>
-      <c r="D304" s="144"/>
+      <c r="A304" s="143"/>
+      <c r="B304" s="143"/>
+      <c r="C304" s="143"/>
+      <c r="D304" s="143"/>
     </row>
     <row r="305" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="144"/>
-      <c r="B305" s="144"/>
-      <c r="C305" s="144"/>
-      <c r="D305" s="144"/>
+      <c r="A305" s="143"/>
+      <c r="B305" s="143"/>
+      <c r="C305" s="143"/>
+      <c r="D305" s="143"/>
     </row>
     <row r="306" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="144"/>
-      <c r="B306" s="144"/>
-      <c r="C306" s="144"/>
-      <c r="D306" s="144"/>
+      <c r="A306" s="143"/>
+      <c r="B306" s="143"/>
+      <c r="C306" s="143"/>
+      <c r="D306" s="143"/>
     </row>
     <row r="307" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="144"/>
-      <c r="B307" s="144"/>
-      <c r="C307" s="144"/>
-      <c r="D307" s="144"/>
+      <c r="A307" s="143"/>
+      <c r="B307" s="143"/>
+      <c r="C307" s="143"/>
+      <c r="D307" s="143"/>
     </row>
     <row r="308" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="144"/>
-      <c r="B308" s="144"/>
-      <c r="C308" s="144"/>
-      <c r="D308" s="144"/>
+      <c r="A308" s="143"/>
+      <c r="B308" s="143"/>
+      <c r="C308" s="143"/>
+      <c r="D308" s="143"/>
     </row>
     <row r="309" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="144"/>
-      <c r="B309" s="144"/>
-      <c r="C309" s="144"/>
-      <c r="D309" s="144"/>
+      <c r="A309" s="143"/>
+      <c r="B309" s="143"/>
+      <c r="C309" s="143"/>
+      <c r="D309" s="143"/>
     </row>
     <row r="310" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="144"/>
-      <c r="B310" s="144"/>
-      <c r="C310" s="144"/>
-      <c r="D310" s="144"/>
+      <c r="A310" s="143"/>
+      <c r="B310" s="143"/>
+      <c r="C310" s="143"/>
+      <c r="D310" s="143"/>
     </row>
     <row r="311" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="144"/>
-      <c r="B311" s="144"/>
-      <c r="C311" s="144"/>
-      <c r="D311" s="144"/>
+      <c r="A311" s="143"/>
+      <c r="B311" s="143"/>
+      <c r="C311" s="143"/>
+      <c r="D311" s="143"/>
     </row>
     <row r="312" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="144"/>
-      <c r="B312" s="144"/>
-      <c r="C312" s="144"/>
-      <c r="D312" s="144"/>
+      <c r="A312" s="143"/>
+      <c r="B312" s="143"/>
+      <c r="C312" s="143"/>
+      <c r="D312" s="143"/>
     </row>
     <row r="313" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="144"/>
-      <c r="B313" s="144"/>
-      <c r="C313" s="144"/>
-      <c r="D313" s="144"/>
+      <c r="A313" s="143"/>
+      <c r="B313" s="143"/>
+      <c r="C313" s="143"/>
+      <c r="D313" s="143"/>
     </row>
     <row r="314" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="144"/>
-      <c r="B314" s="144"/>
-      <c r="C314" s="144"/>
-      <c r="D314" s="144"/>
+      <c r="A314" s="143"/>
+      <c r="B314" s="143"/>
+      <c r="C314" s="143"/>
+      <c r="D314" s="143"/>
     </row>
     <row r="315" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="144"/>
-      <c r="B315" s="144"/>
-      <c r="C315" s="144"/>
-      <c r="D315" s="144"/>
+      <c r="A315" s="143"/>
+      <c r="B315" s="143"/>
+      <c r="C315" s="143"/>
+      <c r="D315" s="143"/>
     </row>
     <row r="316" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="144"/>
-      <c r="B316" s="144"/>
-      <c r="C316" s="144"/>
-      <c r="D316" s="144"/>
+      <c r="A316" s="143"/>
+      <c r="B316" s="143"/>
+      <c r="C316" s="143"/>
+      <c r="D316" s="143"/>
     </row>
     <row r="317" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="144"/>
-      <c r="B317" s="144"/>
-      <c r="C317" s="144"/>
-      <c r="D317" s="144"/>
+      <c r="A317" s="143"/>
+      <c r="B317" s="143"/>
+      <c r="C317" s="143"/>
+      <c r="D317" s="143"/>
     </row>
     <row r="318" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="144"/>
-      <c r="B318" s="144"/>
-      <c r="C318" s="144"/>
-      <c r="D318" s="144"/>
+      <c r="A318" s="143"/>
+      <c r="B318" s="143"/>
+      <c r="C318" s="143"/>
+      <c r="D318" s="143"/>
     </row>
     <row r="319" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="144"/>
-      <c r="B319" s="144"/>
-      <c r="C319" s="144"/>
-      <c r="D319" s="144"/>
+      <c r="A319" s="143"/>
+      <c r="B319" s="143"/>
+      <c r="C319" s="143"/>
+      <c r="D319" s="143"/>
     </row>
     <row r="320" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="144"/>
-      <c r="B320" s="144"/>
-      <c r="C320" s="144"/>
-      <c r="D320" s="144"/>
+      <c r="A320" s="143"/>
+      <c r="B320" s="143"/>
+      <c r="C320" s="143"/>
+      <c r="D320" s="143"/>
     </row>
     <row r="321" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="144"/>
-      <c r="B321" s="144"/>
-      <c r="C321" s="144"/>
-      <c r="D321" s="144"/>
+      <c r="A321" s="143"/>
+      <c r="B321" s="143"/>
+      <c r="C321" s="143"/>
+      <c r="D321" s="143"/>
     </row>
     <row r="322" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="144"/>
-      <c r="B322" s="144"/>
-      <c r="C322" s="144"/>
-      <c r="D322" s="144"/>
+      <c r="A322" s="143"/>
+      <c r="B322" s="143"/>
+      <c r="C322" s="143"/>
+      <c r="D322" s="143"/>
     </row>
     <row r="323" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="144"/>
-      <c r="B323" s="144"/>
-      <c r="C323" s="144"/>
-      <c r="D323" s="144"/>
+      <c r="A323" s="143"/>
+      <c r="B323" s="143"/>
+      <c r="C323" s="143"/>
+      <c r="D323" s="143"/>
     </row>
     <row r="324" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="144"/>
-      <c r="B324" s="144"/>
-      <c r="C324" s="144"/>
-      <c r="D324" s="144"/>
+      <c r="A324" s="143"/>
+      <c r="B324" s="143"/>
+      <c r="C324" s="143"/>
+      <c r="D324" s="143"/>
     </row>
     <row r="325" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="144"/>
-      <c r="B325" s="144"/>
-      <c r="C325" s="144"/>
-      <c r="D325" s="144"/>
+      <c r="A325" s="143"/>
+      <c r="B325" s="143"/>
+      <c r="C325" s="143"/>
+      <c r="D325" s="143"/>
     </row>
     <row r="326" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="144"/>
-      <c r="B326" s="144"/>
-      <c r="C326" s="144"/>
-      <c r="D326" s="144"/>
+      <c r="A326" s="143"/>
+      <c r="B326" s="143"/>
+      <c r="C326" s="143"/>
+      <c r="D326" s="143"/>
     </row>
     <row r="327" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="144"/>
-      <c r="B327" s="144"/>
-      <c r="C327" s="144"/>
-      <c r="D327" s="144"/>
+      <c r="A327" s="143"/>
+      <c r="B327" s="143"/>
+      <c r="C327" s="143"/>
+      <c r="D327" s="143"/>
     </row>
     <row r="328" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="144"/>
-      <c r="B328" s="144"/>
-      <c r="C328" s="144"/>
-      <c r="D328" s="144"/>
+      <c r="A328" s="143"/>
+      <c r="B328" s="143"/>
+      <c r="C328" s="143"/>
+      <c r="D328" s="143"/>
     </row>
     <row r="329" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="144"/>
-      <c r="B329" s="144"/>
-      <c r="C329" s="144"/>
-      <c r="D329" s="144"/>
+      <c r="A329" s="143"/>
+      <c r="B329" s="143"/>
+      <c r="C329" s="143"/>
+      <c r="D329" s="143"/>
     </row>
     <row r="330" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="144"/>
-      <c r="B330" s="144"/>
-      <c r="C330" s="144"/>
-      <c r="D330" s="144"/>
+      <c r="A330" s="143"/>
+      <c r="B330" s="143"/>
+      <c r="C330" s="143"/>
+      <c r="D330" s="143"/>
     </row>
     <row r="331" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="144"/>
-      <c r="B331" s="144"/>
-      <c r="C331" s="144"/>
-      <c r="D331" s="144"/>
+      <c r="A331" s="143"/>
+      <c r="B331" s="143"/>
+      <c r="C331" s="143"/>
+      <c r="D331" s="143"/>
     </row>
     <row r="332" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="144"/>
-      <c r="B332" s="144"/>
-      <c r="C332" s="144"/>
-      <c r="D332" s="144"/>
+      <c r="A332" s="143"/>
+      <c r="B332" s="143"/>
+      <c r="C332" s="143"/>
+      <c r="D332" s="143"/>
     </row>
     <row r="333" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="144"/>
-      <c r="B333" s="144"/>
-      <c r="C333" s="144"/>
-      <c r="D333" s="144"/>
+      <c r="A333" s="143"/>
+      <c r="B333" s="143"/>
+      <c r="C333" s="143"/>
+      <c r="D333" s="143"/>
     </row>
     <row r="334" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="144"/>
-      <c r="B334" s="144"/>
-      <c r="C334" s="144"/>
-      <c r="D334" s="144"/>
+      <c r="A334" s="143"/>
+      <c r="B334" s="143"/>
+      <c r="C334" s="143"/>
+      <c r="D334" s="143"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
